--- a/lead_rule.xlsx
+++ b/lead_rule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus14\Documents\GitHub\Ria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB6E06C-6EE3-4AF0-8C06-F2A0F2A95CD8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187C53F5-2994-4D8D-B968-CFFE9610B769}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -573,7 +573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="I2" sqref="I2:I9"/>
     </sheetView>
   </sheetViews>
